--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559978.6228602029</v>
+        <v>-562491.031241568</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>20.78061937353086</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482921</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8027612123806</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>217.3527673832567</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>82.40888889398178</v>
+        <v>82.4088888939641</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>261.2824032917156</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5262022477617</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>32.52207646038699</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>205.4974912742816</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>133.5962940431034</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.66955728287731</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1108263987044</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>29.87538180832642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>136.420795521365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>67.60860312451699</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>159.2661870898793</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>137.7610225486951</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>100.9884800080824</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330698053</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>13.79222725775277</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>29.95900124023845</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2050.984861560912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.8906159540807</v>
+        <v>635.1026143922934</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>466.1664314643865</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.979682775941</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1402.738380862829</v>
+        <v>1554.950379301041</v>
       </c>
       <c r="W4" t="n">
-        <v>1113.321210825868</v>
+        <v>1265.533209264081</v>
       </c>
       <c r="X4" t="n">
-        <v>885.3316599278505</v>
+        <v>1037.543658366063</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.5390807843204</v>
+        <v>816.7510792225331</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.418012197378</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C5" t="n">
-        <v>1402.455495256967</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D5" t="n">
-        <v>1044.189796650216</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="E5" t="n">
-        <v>1044.189796650216</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>633.2038918606088</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>218.1314417056053</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,13 +4577,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.0178522615</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445191</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1391.161008959154</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1136.476520753267</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W7" t="n">
-        <v>847.0593507163063</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>619.069799818289</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="E8" t="n">
         <v>892.5704713767946</v>
@@ -4793,19 +4793,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3285.535561727475</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3079.557814111698</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3079.557814111698</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2748.494926768127</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2395.726271498012</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2395.726271498012</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>609.1828941916698</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>609.1828941916698</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1296.417455199446</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1007.000285162486</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.000285162486</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.000285162486</v>
+        <v>940.9479984342453</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926233</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802875</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978944</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2311.62586152507</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2092.024396548011</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.58614405608</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.901655850193</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910497</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631428</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>632.340100950807</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684139</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>337.5370598705035</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.3159148556</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199797</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199797</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162837</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264819</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121289</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5981,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6139,43 +6139,43 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6206,49 +6206,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646413</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7330,43 +7330,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7564,10 +7564,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7579,7 +7579,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,22 +7588,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>348.9504813049382</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>169.7287544298462</v>
+        <v>169.7287544298639</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012548</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>113.4176828771276</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>126.9182872993649</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.533690297528835</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>64.5356582841864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.2340587438918</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1162382.783858505</v>
+        <v>1162382.783858506</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1162382.783858506</v>
+        <v>1162382.783858505</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1162382.783858505</v>
+        <v>1162382.783858506</v>
       </c>
     </row>
     <row r="11">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058921</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26329,31 +26329,31 @@
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25836.2982708333</v>
+        <v>25836.29827083306</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683043</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683049</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233455.34078392</v>
+        <v>-1233745.947948766</v>
       </c>
       <c r="C6" t="n">
-        <v>66720.73572631704</v>
+        <v>66720.73572631695</v>
       </c>
       <c r="D6" t="n">
-        <v>66720.73572631722</v>
+        <v>66720.73572631711</v>
       </c>
       <c r="E6" t="n">
-        <v>-177209.2108788406</v>
+        <v>-177243.9488042765</v>
       </c>
       <c r="F6" t="n">
-        <v>148203.2509285144</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="G6" t="n">
-        <v>148203.2509285144</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="H6" t="n">
-        <v>148203.2509285143</v>
+        <v>148168.5130030784</v>
       </c>
       <c r="I6" t="n">
-        <v>148203.2509285144</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="J6" t="n">
-        <v>-69327.9514687631</v>
+        <v>-69362.68939419881</v>
       </c>
       <c r="K6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="L6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="M6" t="n">
-        <v>63148.22299300261</v>
+        <v>63113.4850675668</v>
       </c>
       <c r="N6" t="n">
-        <v>123259.0179484214</v>
+        <v>123259.017948421</v>
       </c>
       <c r="O6" t="n">
-        <v>142686.7359420531</v>
+        <v>142686.7359420529</v>
       </c>
       <c r="P6" t="n">
-        <v>142686.735942053</v>
+        <v>142686.7359420529</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.81271180583175</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>68.85907082235619</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>120.6479667805461</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>186.0815621395588</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>253.6897617452259</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>81.02550706230943</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>248.3340760291584</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.51820450529851</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.31022162422684</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222.2622615155016</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,19 +32078,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>187.2159464875248</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>261.5336801130326</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>518.0009690113186</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060408</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>55.87423440419153</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.6960534463659</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
